--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-think/CoT_llama_wikidata_think_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-dbpedia-wikidata-think/CoT_llama_wikidata_think_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-dbpedia-wikidata-think\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4A5E6-1886-4B43-AAFA-920DF34F77F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280C2C6-5C51-41D3-9772-A59374432334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="450">
   <si>
     <t>Question</t>
   </si>
@@ -349,304 +349,904 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?founder WHERE { wd:Q1336200 wdt:P112 ?founder . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P141 wd:Q2001 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?club WHERE { ?club a &lt;http://www.wikidata.org/entity/Q476028&gt; ; &lt;http://www.wikidata.org/entity/P1476&gt; &lt;http://www.wikidata.org/entity/Q82595&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?actor WHERE { ?movie wdt:P57 wd:Q16297 ; wdt:P161 ?actor }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P2044 ?elevation . FILTER (?elevation &gt; 0) ORDER BY DESC(?elevation) LIMIT 1 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT (COUNT(DISTINCT ?film) AS ?count) WHERE { ?film wdt:P31 wd:Q11424. ?film wdt:P161 wd:Q38111. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://www.wikidata.org/entity/Q53713&gt; &lt;http://www.wikidata.org/entity/P570&gt; ?date }</t>
-  </si>
-  <si>
-    <t>SELECT ?movie WHERE { ?movie (wdt:P161|wdt:P180|wdt:P161|wdt:P180|wdt:P31|wdt:P180) (wd:Q34851|wd:Q151973) . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q482994. ?album wdt:P175 wd:Q303. ?album wdt:P577 ?releaseDate. ?album wdt:P264 ?recordLabel. FILTER (?releaseDate = " earliest"^^xsd:dateTime). BIND (STRLANG(?recordLabel, "en") AS ?label) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Bandleader ; dbo:instrument res:Trumpet }</t>
-  </si>
-  <si>
-    <t>SERVICE wikibase:serviceLink { bd:serviceParam wikibase:queryEngine "Jena". } SELECT ?film WHERE { ?film a wd:Q11424 ; pr:P57 wd:Q315087 ; pr:P161 wd:Q40523 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } ?uri wdt:P30 ?count . FILTER(?count = (SELECT (COUNT(DISTINCT ?uri) as ?count) { ?uri wdt:P509 ?x })) } ORDER BY DESC(?count) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q1207989 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?elevation } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q5401 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author. }</t>
-  </si>
-  <si>
-    <t>SELECT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?currency WHERE { wd:Q12205470 wdt:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?launchSite &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . ?rocket a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q13117&gt; . SERVICE wikibase:label { BIND(STRAFTER(STR(?launchSite), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?launchSiteLabel) BIND(STRAFTER(STR(?rocket), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?rocketLabel) } }</t>
-  </si>
-  <si>
-    <t>SELECT ?s WHERE { ?s a &lt;http://www.wikidata.org/entity/Q23442&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q17&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q4830453. ?uri wdt:P452 wd:Q854995. OPTIONAL { ?uri wdt:P452 ?industry. FILTER regex(str(?industry), "advertising", "i") } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?show WHERE { ?show a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q485310&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P179&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q10843402 ; wdt:P19 wd:Q649. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wdt:P279* wd:Q11424. ?item wds:P161 wd:Q103894. ?item wdt:P577 ?date. FILTER (STRSTARTS(?date, "20")) ORDER BY DESC(?date) LIMIT 1 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 ?type . ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q215627 ; wdt:P20 wd:Q160544. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wdt:P40 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q5806 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q1163227 wdt:P50 ?author }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q189080 wdt:P135 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?place WHERE { wd:Q40912 wdt:P19 ?place }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:Q515 ; wdt:P1082 ?pop } FILTER (isLiteral(?pop)) ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650. ?item wdt:P17 wd:Q34. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2295 ?ni }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q91 wdt:P20 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT ?country ?capital WHERE { ?himalayas wdt:P131* ?country . ?country wdt:P36 ?capital . FILTER(?himalayas = wd:Q5451) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { ?country &lt;http://www.wikidata.org/entity/P168&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650; rdfs:subClassOf* wd:Q1219 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?party WHERE { ?party wdt:P31 wd:Q7278. ?party wdt:P17 wd:Q41. ?party wdt:P279 wd:Q3781399. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { ?show wikidata:P161 ?actor . ?actor wikidata:P569 ?date . FILTER (?show = wikidata:Q162371) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?creator . ?creator wdt:P110 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . { ?uri &lt;http://www.wikidata.org/entity/P20&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION { ?uri &lt;http://www.wikidata.org/entity/P20&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P30&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q23572 wdt:P86 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P57 wd:Q56094 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q482994 ; wdt:P175 wdt:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { wd:Q213 wdt:P38 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wdt:P31 wd:Q1741 ; wdt:P20 wdt:P31 wd:Q64 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?bridge WHERE { ?bridge a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(DISTINCT ?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wdt:Q15416. ?uri wdt:P170 wd:Q25014. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?writer WHERE { ?writer a &lt;http://www.wikidata.org/entity/Q5&gt; ; ?award ?awardProperty &lt;http://www.wikidata.org/entity/Q37922&gt; . FILTER (?awardProperty = &lt;http://www.wikidata.org/entity/P166&gt; &amp;&amp; ?award = &lt;http://www.wikidata.org/entity/Q37922&gt;) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wdt:P596 wdt:P61 ?discoverer }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 ?occupation; wdt:P31 ?bandleader. FILTER(?bandleader = wd:Q5280538 || ?bandleader = wd:Q806349) ?uri wdt:P1303 ?instrument. FILTER(?instrument = wd:Q119621 || ?instrument = wd:Q8338) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/prop/direct/P2048&gt; ?n . FILTER (xsd:float(?n) &gt; 2.0) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q40523; wdt:P161 wd:Q48410 }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1020 wdt:P36 ?capital }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wikidata:Q937857 ; wikidata:P19 wikidata:Q233 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q1009 wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/prop/direct/P31&gt; ; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q9143&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?creator WHERE { wd:Q5930 wdt:P170 ?creator }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?creator WHERE { wd:Q2695156 wdt:P170 ?creator. }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?num WHERE { wd:Q25907685 wdt:P36 ?x . ?x wdt:P1082 ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
-  </si>
-  <si>
-    <t>SELECT ?number WHERE { wd:Q70096636 wd:P1128 ?number }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P291 ?n }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q219512 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/property/P31&gt; ; &lt;http://www.wikidata.org/property/P17&gt; &lt;http://www.wikidata.org/entity/Q35&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q5451 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wikidata:Country ; wdt:P2046 ?n } ORDER BY DESC(?n) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?almaMater WHERE { wd:Q567 wdt:P69 ?almaMater }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?founder WHERE { wd:Q1336200 wdt:P112 ?founder . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P141 wd:Q2001 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?club WHERE { ?club a &lt;http://www.wikidata.org/entity/Q476028&gt; ; &lt;http://www.wikidata.org/entity/P1476&gt; &lt;http://www.wikidata.org/entity/Q82595&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?actor WHERE { ?movie wdt:P57 wd:Q16297 ; wdt:P161 ?actor }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P2044 ?elevation . FILTER (?elevation &gt; 0) ORDER BY DESC(?elevation) LIMIT 1 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT (COUNT(DISTINCT ?film) AS ?count) WHERE { ?film wdt:P31 wd:Q11424. ?film wdt:P161 wd:Q38111. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://www.wikidata.org/entity/Q53713&gt; &lt;http://www.wikidata.org/entity/P570&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?movie WHERE { ?movie (wdt:P161|wdt:P180|wdt:P161|wdt:P180|wdt:P31|wdt:P180) (wd:Q34851|wd:Q151973) . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q482994. ?album wdt:P175 wd:Q303. ?album wdt:P577 ?releaseDate. ?album wdt:P264 ?recordLabel. FILTER (?releaseDate = " earliest"^^xsd:dateTime). BIND (STRLANG(?recordLabel, "en") AS ?label) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation res:Bandleader ; dbo:instrument res:Trumpet }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SERVICE wikibase:serviceLink { bd:serviceParam wikibase:queryEngine "Jena". } SELECT ?film WHERE { ?film a wd:Q11424 ; pr:P57 wd:Q315087 ; pr:P161 wd:Q40523 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . SERVICE wikibase:label { bd:serviceParam wikibase:language "en". } ?uri wdt:P30 ?count . FILTER(?count = (SELECT (COUNT(DISTINCT ?uri) as ?count) { ?uri wdt:P509 ?x })) } ORDER BY DESC(?count) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q1207989 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?elevation } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q5401 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?currency WHERE { wd:Q12205470 wdt:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?launchSite &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . ?rocket a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q13117&gt; . SERVICE wikibase:label { BIND(STRAFTER(STR(?launchSite), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?launchSiteLabel) BIND(STRAFTER(STR(?rocket), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?rocketLabel) } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?s WHERE { ?s a &lt;http://www.wikidata.org/entity/Q23442&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q17&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q4830453. ?uri wdt:P452 wd:Q854995. OPTIONAL { ?uri wdt:P452 ?industry. FILTER regex(str(?industry), "advertising", "i") } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?show WHERE { ?show a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q485310&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P179&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P31 wd:Q6256 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q10843402 ; wdt:P19 wd:Q649. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wdt:P279* wd:Q11424. ?item wds:P161 wd:Q103894. ?item wdt:P577 ?date. FILTER (STRSTARTS(?date, "20")) ORDER BY DESC(?date) LIMIT 1 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 ?type . ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q215627 ; wdt:P20 wd:Q160544. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wdt:P40 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q5806 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q1163227 wdt:P50 ?author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q189080 wdt:P135 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?place WHERE { wd:Q40912 wdt:P19 ?place }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:Q515 ; wdt:P1082 ?pop } FILTER (isLiteral(?pop)) ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650. ?item wdt:P17 wd:Q34. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2295 ?ni }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q91 wdt:P20 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?country ?capital WHERE { ?himalayas wdt:P131* ?country . ?country wdt:P36 ?capital . FILTER(?himalayas = wd:Q5451) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q43203&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { ?country &lt;http://www.wikidata.org/entity/P168&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650; rdfs:subClassOf* wd:Q1219 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?party WHERE { ?party wdt:P31 wd:Q7278. ?party wdt:P17 wd:Q41. ?party wdt:P279 wd:Q3781399. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { ?show wikidata:P161 ?actor . ?actor wikidata:P569 ?date . FILTER (?show = wikidata:Q162371) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?creator . ?creator wdt:P110 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . { ?uri &lt;http://www.wikidata.org/entity/P20&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } UNION { ?uri &lt;http://www.wikidata.org/entity/P20&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P30&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/entity/statement/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q23572 wdt:P86 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P57 wd:Q56094 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q482994 ; wdt:P175 wdt:Q15862 ; wdt:P577 ?d } ORDER BY ASC(?d) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { wd:Q213 wdt:P38 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wdt:P31 wd:Q1741 ; wdt:P20 wdt:P31 wd:Q64 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?bridge WHERE { ?bridge a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(DISTINCT ?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wdt:Q15416. ?uri wdt:P170 wd:Q25014. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?writer WHERE { ?writer a &lt;http://www.wikidata.org/entity/Q5&gt; ; ?award ?awardProperty &lt;http://www.wikidata.org/entity/Q37922&gt; . FILTER (?awardProperty = &lt;http://www.wikidata.org/entity/P166&gt; &amp;&amp; ?award = &lt;http://www.wikidata.org/entity/Q37922&gt;) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wdt:P596 wdt:P61 ?discoverer }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 ?occupation; wdt:P31 ?bandleader. FILTER(?bandleader = wd:Q5280538 || ?bandleader = wd:Q806349) ?uri wdt:P1303 ?instrument. FILTER(?instrument = wd:Q119621 || ?instrument = wd:Q8338) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/prop/direct/P2048&gt; ?n . FILTER (xsd:float(?n) &gt; 2.0) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q40523; wdt:P161 wd:Q48410 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?capital WHERE { wd:Q1020 wdt:P36 ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wikidata:Q937857 ; wikidata:P19 wikidata:Q233 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q1009 wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/prop/direct/P31&gt; ; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q9143&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdp: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?creator WHERE { wd:Q5930 wdt:P170 ?creator }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?creator WHERE { wd:Q2695156 wdt:P170 ?creator. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?num WHERE { wd:Q25907685 wdt:P36 ?x . ?x wdt:P1082 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?number WHERE { wd:Q70096636 wd:P1128 ?number }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P291 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q219512 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/property/P31&gt; ; &lt;http://www.wikidata.org/property/P17&gt; &lt;http://www.wikidata.org/entity/Q35&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q5451 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wikidata:Country ; wdt:P2046 ?n } ORDER BY DESC(?n) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?almaMater WHERE { wd:Q567 wdt:P69 ?almaMater }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/ontology/creator&gt; ?uri }</t>
   </si>
   <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
@@ -961,6 +1561,9 @@
     <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q23466', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['1978-04-09T00:00:00Z']</t>
   </si>
   <si>
@@ -973,12 +1576,24 @@
     <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
+  </si>
+  <si>
     <t>['5348554000']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q9215']</t>
+  </si>
+  <si>
+    <t>['1735-10-30T00:00:00Z']</t>
+  </si>
+  <si>
     <t>['447706209']</t>
   </si>
   <si>
+    <t>['1616-05-03T00:00:00Z']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q178824']</t>
   </si>
   <si>
@@ -988,9 +1603,18 @@
     <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q3896131']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q212862']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q81924287']</t>
+  </si>
+  <si>
+    <t>['9606916']</t>
+  </si>
+  <si>
     <t>['3']</t>
   </si>
   <si>
@@ -1006,6 +1630,9 @@
     <t>['http://www.wikidata.org/entity/Q138578']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+  </si>
+  <si>
     <t>['96995000000']</t>
   </si>
   <si>
@@ -1030,12 +1657,18 @@
     <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
   </si>
   <si>
+    <t>['Adele Laurie Blue Adkins']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/statement/q213-04F5421B-4168-49B2-B523-9907480D5AE0', 'http://www.wikidata.org/entity/statement/Q213-53e9423a-41fd-159d-be0d-bc8cb74e730c']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q6069405']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q3876']</t>
   </si>
   <si>
@@ -1051,6 +1684,12 @@
     <t>['34112.5']</t>
   </si>
   <si>
+    <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+  </si>
+  <si>
     <t>['http://www.wikidata.org/entity/Q1263483']</t>
   </si>
   <si>
@@ -1087,9 +1726,6 @@
     <t>['http://www.wikidata.org/entity/Q202585']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455']</t>
   </si>
   <si>
@@ -1111,18 +1747,9 @@
     <t>['http://www.wikidata.org/entity/Q174346', 'http://www.wikidata.org/entity/Q233054', 'http://www.wikidata.org/entity/Q37459']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q9215']</t>
-  </si>
-  <si>
-    <t>['1735-10-30T00:00:00Z']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q39099']</t>
   </si>
   <si>
-    <t>['1616-05-03T00:00:00Z']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q622762', 'http://www.wikidata.org/entity/Q94967350']</t>
   </si>
   <si>
@@ -1144,9 +1771,6 @@
     <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q837']</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q3896131']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051']</t>
   </si>
   <si>
@@ -1156,9 +1780,6 @@
     <t>['http://www.wikidata.org/entity/Q5159490']</t>
   </si>
   <si>
-    <t>['9606916']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
   </si>
   <si>
@@ -1207,9 +1828,6 @@
     <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
   </si>
   <si>
-    <t>['Adele Laurie Blue Adkins']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q193490']</t>
   </si>
   <si>
@@ -1240,9 +1858,6 @@
     <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
   </si>
   <si>
-    <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
-  </si>
-  <si>
     <t>['http://www.wikidata.org/entity/Q1930']</t>
   </si>
   <si>
@@ -1271,9 +1886,6 @@
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
   </si>
   <si>
     <t>['http://www.wikidata.org/entity/Q124003554']</t>
@@ -1287,206 +1899,105 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 160,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?founder WHERE { wd:Q1336200 wdt:P112 ?founder . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 160,\n        "stopIndex": 173\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?founder WHERE { wd:Q1336200 wdt:P112 ?founder . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 160,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?founder WHERE { wd:Q1336200 wdt:P112 ?founder . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n        "startIndex": 458,\n        "stopIndex": 471\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?founder WHERE { wd:Q1336200 wdt:P112 ?founder . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 96,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P141 wd:Q2001 }",\n        "startIndex": 96,\n        "stopIndex": 103\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P141 wd:Q2001 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>None</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 205,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P2044 ?elevation . FILTER (?elevation &gt; 0) ORDER BY DESC(?elevation) LIMIT 1 }",\n        "startIndex": 503,\n        "stopIndex": 510\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P2044 ?elevation . FILTER (?elevation &gt; 0) ORDER BY DESC(?elevation) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"ORDER BY\\": missing \'}\' at \'ORDER BY\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 205,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P2044 ?elevation . FILTER (?elevation &gt; 0) ORDER BY DESC(?elevation) LIMIT 1 }",\n        "startIndex": 205,\n        "stopIndex": 212\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P2044 ?elevation . FILTER (?elevation &gt; 0) ORDER BY DESC(?elevation) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"|\\": extraneous input \'|\' expecting {\'(\', \')\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 94,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?movie WHERE { ?movie (wdt:P161|wdt:P180|wdt:P161|wdt:P180|wdt:P31|wdt:P180) (wd:Q34851|wd:Q151973) . }",\n        "startIndex": 392,\n        "stopIndex": 392\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?movie WHERE { ?movie (wdt:P161|wdt:P180|wdt:P161|wdt:P180|wdt:P31|wdt:P180) (wd:Q34851|wd:Q151973) . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"|\\": extraneous input \'|\' expecting {\'(\', \')\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 94,\n        "query": "SELECT ?movie WHERE { ?movie (wdt:P161|wdt:P180|wdt:P161|wdt:P180|wdt:P31|wdt:P180) (wd:Q34851|wd:Q151973) . }",\n        "startIndex": 94,\n        "stopIndex": 94\n    },\n    "query": "SELECT ?movie WHERE { ?movie (wdt:P161|wdt:P180|wdt:P161|wdt:P180|wdt:P31|wdt:P180) (wd:Q34851|wd:Q151973) . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 2,\n        "total": 2\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 266,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q482994. ?album wdt:P175 wd:Q303. ?album wdt:P577 ?releaseDate. ?album wdt:P264 ?recordLabel. FILTER (?releaseDate = \\" earliest\\"^^xsd:dateTime). BIND (STRLANG(?recordLabel, \\"en\\") AS ?label) }",\n        "startIndex": 564,\n        "stopIndex": 575\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q482994. ?album wdt:P175 wd:Q303. ?album wdt:P577 ?releaseDate. ?album wdt:P264 ?recordLabel. FILTER (?releaseDate = \\" earliest\\"^^xsd:dateTime). BIND (STRLANG(?recordLabel, \\"en\\") AS ?label) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 266,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q482994. ?album wdt:P175 wd:Q303. ?album wdt:P577 ?releaseDate. ?album wdt:P264 ?recordLabel. FILTER (?releaseDate = \\" earliest\\"^^xsd:dateTime). BIND (STRLANG(?recordLabel, \\"en\\") AS ?label) }",\n        "startIndex": 266,\n        "stopIndex": 277\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?label WHERE { ?album wdt:P31 wd:Q482994. ?album wdt:P175 wd:Q303. ?album wdt:P577 ?releaseDate. ?album wdt:P264 ?recordLabel. FILTER (?releaseDate = \\" earliest\\"^^xsd:dateTime). BIND (STRLANG(?recordLabel, \\"en\\") AS ?label) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"SERVICE\\": no viable alternative at input \'PREFIXwdt:&lt;http://www.wikidata.org/prop/direct/&gt;PREFIXwd:&lt;http://www.wikidata.org/entity/&gt;PREFIXrdfs:&lt;http://www.w3.org/2000/01/rdf-schema#&gt;PREFIXp:&lt;http://www.wikidata.org/prop/&gt;PREFIXps:&lt;http://www.wikidata.org/prop/statement/&gt;PREFIXpq:&lt;http://www.wikidata.org/prop/qualifier/&gt;SERVICE\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSERVICE wikibase:serviceLink { bd:serviceParam wikibase:queryEngine \\"Jena\\". } SELECT ?film WHERE { ?film a wd:Q11424 ; pr:P57 wd:Q315087 ; pr:P161 wd:Q40523 }",\n        "startIndex": 298,\n        "stopIndex": 304\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSERVICE wikibase:serviceLink { bd:serviceParam wikibase:queryEngine \\"Jena\\". } SELECT ?film WHERE { ?film a wd:Q11424 ; pr:P57 wd:Q315087 ; pr:P161 wd:Q40523 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 75,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }",\n        "startIndex": 75,\n        "stopIndex": 84\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"SELECT\\": extraneous input \'SELECT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 152,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?uri wdt:P30 ?count . FILTER(?count = (SELECT (COUNT(DISTINCT ?uri) as ?count) { ?uri wdt:P509 ?x })) } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n        "startIndex": 450,\n        "stopIndex": 455\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?uri wdt:P30 ?count . FILTER(?count = (SELECT (COUNT(DISTINCT ?uri) as ?count) { ?uri wdt:P509 ?x })) } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"SERVICE\\": mismatched input \'SERVICE\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "SERVICE wikibase:serviceLink { bd:serviceParam wikibase:queryEngine \\"Jena\\". } SELECT ?film WHERE { ?film a wd:Q11424 ; pr:P57 wd:Q315087 ; pr:P161 wd:Q40523 }",\n        "startIndex": 0,\n        "stopIndex": 6\n    },\n    "query": "SERVICE wikibase:serviceLink { bd:serviceParam wikibase:queryEngine \\"Jena\\". } SELECT ?film WHERE { ?film a wd:Q11424 ; pr:P57 wd:Q315087 ; pr:P161 wd:Q40523 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 261,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?launchSite &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . ?rocket a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q13117&gt; . SERVICE wikibase:label { BIND(STRAFTER(STR(?launchSite), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?launchSiteLabel) BIND(STRAFTER(STR(?rocket), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?rocketLabel) } }",\n        "startIndex": 559,\n        "stopIndex": 572\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?launchSite &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . ?rocket a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q13117&gt; . SERVICE wikibase:label { BIND(STRAFTER(STR(?launchSite), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?launchSiteLabel) BIND(STRAFTER(STR(?rocket), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?rocketLabel) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"SELECT\\": extraneous input \'SELECT\' expecting {\'(\', \'+\', \'!\', \'-\', \'true\', \'false\', GROUP_CONCAT, NOT, STR, LANG, LANGMATCHES, DATATYPE, BOUND, IRI, URI, BNODE, RAND, ABS, CEIL, FLOOR, ROUND, CONCAT, STRLEN, UCASE, LCASE, ENCODE_FOR_URI, CONTAINS, STRSTARTS, STRENDS, STRBEFORE, STRAFTER, YEAR, MONTH, DAY, HOURS, MINUTES, SECONDS, TIMEZONE, TZ, NOW, UUID, STRUUID, SHA1, SHA256, SHA384, SHA512, MD5, COALESCE, IF, STRLANG, STRDT, SAMETERM, ISIRI, ISURI, ISBLANK, ISLITERAL, ISNUMERIC, REGEX, SUBSTR, REPLACE, EXISTS, COUNT, SUM, MIN, MAX, AVG, SAMPLE, IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 152,\n        "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?uri wdt:P30 ?count . FILTER(?count = (SELECT (COUNT(DISTINCT ?uri) as ?count) { ?uri wdt:P509 ?x })) } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n        "startIndex": 152,\n        "stopIndex": 157\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\". } ?uri wdt:P30 ?count . FILTER(?count = (SELECT (COUNT(DISTINCT ?uri) as ?count) { ?uri wdt:P509 ?x })) } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 157,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wdt:P279* wd:Q11424. ?item wds:P161 wd:Q103894. ?item wdt:P577 ?date. FILTER (STRSTARTS(?date, \\"20\\")) ORDER BY DESC(?date) LIMIT 1 }",\n        "startIndex": 455,\n        "stopIndex": 455\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wdt:P279* wd:Q11424. ?item wds:P161 wd:Q103894. ?item wdt:P577 ?date. FILTER (STRSTARTS(?date, \\"20\\")) ORDER BY DESC(?date) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 89,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }",\n        "startIndex": 89,\n        "stopIndex": 97\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"FILTER\\": mismatched input \'FILTER\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 112,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:Q515 ; wdt:P1082 ?pop } FILTER (isLiteral(?pop)) ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n        "startIndex": 410,\n        "stopIndex": 415\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:Q515 ; wdt:P1082 ?pop } FILTER (isLiteral(?pop)) ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 23,\n        "query": "SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author. }",\n        "startIndex": 23,\n        "stopIndex": 32\n    },\n    "query": "SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 36,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?date WHERE { ?show wikidata:P161 ?actor . ?actor wikidata:P569 ?date . FILTER (?show = wikidata:Q162371) }",\n        "startIndex": 334,\n        "stopIndex": 346\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?date WHERE { ?show wikidata:P161 ?actor . ?actor wikidata:P569 ?date . FILTER (?show = wikidata:Q162371) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 21,\n        "query": "SELECT ?date WHERE { wd:Q11806 wdt:P569 ?date }",\n        "startIndex": 21,\n        "stopIndex": 29\n    },\n    "query": "SELECT ?date WHERE { wd:Q11806 wdt:P569 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q1741\\": mismatched input \'wd:Q1741\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 50,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wdt:P31 wd:Q1741 ; wdt:P20 wdt:P31 wd:Q64 . }",\n        "startIndex": 348,\n        "stopIndex": 355\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wdt:P31 wd:Q1741 ; wdt:P20 wdt:P31 wd:Q64 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 69,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1",\n        "startIndex": 69,\n        "stopIndex": 75\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://www.wikidata.org/entity/Q37922&gt;\\": mismatched input \'&lt;http://www.wikidata.org/entity/Q37922&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 102,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?writer WHERE { ?writer a &lt;http://www.wikidata.org/entity/Q5&gt; ; ?award ?awardProperty &lt;http://www.wikidata.org/entity/Q37922&gt; . FILTER (?awardProperty = &lt;http://www.wikidata.org/entity/P166&gt; &amp;&amp; ?award = &lt;http://www.wikidata.org/entity/Q37922&gt;) }",\n        "startIndex": 400,\n        "stopIndex": 438\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?writer WHERE { ?writer a &lt;http://www.wikidata.org/entity/Q5&gt; ; ?award ?awardProperty &lt;http://www.wikidata.org/entity/Q37922&gt; . FILTER (?awardProperty = &lt;http://www.wikidata.org/entity/P166&gt; &amp;&amp; ?award = &lt;http://www.wikidata.org/entity/Q37922&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 261,\n        "query": "SELECT DISTINCT ?uri WHERE { ?launchSite &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . ?rocket a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q13117&gt; . SERVICE wikibase:label { BIND(STRAFTER(STR(?launchSite), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?launchSiteLabel) BIND(STRAFTER(STR(?rocket), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?rocketLabel) } }",\n        "startIndex": 261,\n        "stopIndex": 274\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?launchSite &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . ?rocket a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q13117&gt; . SERVICE wikibase:label { BIND(STRAFTER(STR(?launchSite), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?launchSiteLabel) BIND(STRAFTER(STR(?rocket), STR(&lt;http://www.wikidata.org/entity/&gt;)) AS ?rocketLabel) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 137,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/prop/direct/P2048&gt; ?n . FILTER (xsd:float(?n) &gt; 2.0) }",\n        "startIndex": 435,\n        "stopIndex": 443\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/prop/direct/P2048&gt; ?n . FILTER (xsd:float(?n) &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"*\\": mismatched input \'*\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 157,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wdt:P279* wd:Q11424. ?item wds:P161 wd:Q103894. ?item wdt:P577 ?date. FILTER (STRSTARTS(?date, \\"20\\")) ORDER BY DESC(?date) LIMIT 1 }",\n        "startIndex": 157,\n        "stopIndex": 157\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wds: &lt;http://www.wikidata.org/prop/statement/&gt; SELECT DISTINCT ?item WHERE { ?item wdt:P31 wdt:P279* wd:Q11424. ?item wds:P161 wd:Q103894. ?item wdt:P577 ?date. FILTER (STRSTARTS(?date, \\"20\\")) ORDER BY DESC(?date) LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 ?type . ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 ?type . ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }",\n        "startIndex": 71,\n        "stopIndex": 76\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q85 wdt:P1082 ?pop }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q215627 ; wdt:P20 wd:Q160544. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q215627 ; wdt:P20 wd:Q160544. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q189080 wdt:P135 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q189080 wdt:P135 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"FILTER\\": mismatched input \'FILTER\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 112,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:Q515 ; wdt:P1082 ?pop } FILTER (isLiteral(?pop)) ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n        "startIndex": 112,\n        "stopIndex": 117\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { ?uri wdt:P31 wdt:Q515 ; wdt:P1082 ?pop } FILTER (isLiteral(?pop)) ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650. ?item wdt:P17 wd:Q34. }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q1445650. ?item wdt:P17 wd:Q34. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 44,\n        "query": "SELECT ?country ?capital WHERE { ?himalayas wdt:P131* ?country . ?country wdt:P36 ?capital . FILTER(?himalayas = wd:Q5451) }",\n        "startIndex": 44,\n        "stopIndex": 51\n    },\n    "query": "SELECT ?country ?capital WHERE { ?himalayas wdt:P131* ?country . ?country wdt:P36 ?capital . FILTER(?himalayas = wd:Q5451) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 146,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650; rdfs:subClassOf* wd:Q1219 }",\n        "startIndex": 146,\n        "stopIndex": 156\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650; rdfs:subClassOf* wd:Q1219 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?date WHERE { ?show wikidata:P161 ?actor . ?actor wikidata:P569 ?date . FILTER (?show = wikidata:Q162371) }",\n        "startIndex": 36,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?date WHERE { ?show wikidata:P161 ?actor . ?actor wikidata:P569 ?date . FILTER (?show = wikidata:Q162371) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 70,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }",\n        "startIndex": 70,\n        "stopIndex": 78\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wd:Q1741\\": mismatched input \'wd:Q1741\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 50,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wdt:P31 wd:Q1741 ; wdt:P20 wdt:P31 wd:Q64 . }",\n        "startIndex": 50,\n        "stopIndex": 57\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wdt:P31 wd:Q1741 ; wdt:P20 wdt:P31 wd:Q64 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 113,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wdt:Q15416. ?uri wdt:P170 wd:Q25014. }",\n        "startIndex": 113,\n        "stopIndex": 121\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri a wdt:Q15416. ?uri wdt:P170 wd:Q25014. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://www.wikidata.org/entity/Q37922&gt;\\": mismatched input \'&lt;http://www.wikidata.org/entity/Q37922&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 102,\n        "query": "SELECT DISTINCT ?writer WHERE { ?writer a &lt;http://www.wikidata.org/entity/Q5&gt; ; ?award ?awardProperty &lt;http://www.wikidata.org/entity/Q37922&gt; . FILTER (?awardProperty = &lt;http://www.wikidata.org/entity/P166&gt; &amp;&amp; ?award = &lt;http://www.wikidata.org/entity/Q37922&gt;) }",\n        "startIndex": 102,\n        "stopIndex": 140\n    },\n    "query": "SELECT DISTINCT ?writer WHERE { ?writer a &lt;http://www.wikidata.org/entity/Q5&gt; ; ?award ?awardProperty &lt;http://www.wikidata.org/entity/Q37922&gt; . FILTER (?awardProperty = &lt;http://www.wikidata.org/entity/P166&gt; &amp;&amp; ?award = &lt;http://www.wikidata.org/entity/Q37922&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 ?occupation; wdt:P31 ?bandleader. FILTER(?bandleader = wd:Q5280538 || ?bandleader = wd:Q806349) ?uri wdt:P1303 ?instrument. FILTER(?instrument = wd:Q119621 || ?instrument = wd:Q8338) }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 ?occupation; wdt:P31 ?bandleader. FILTER(?bandleader = wd:Q5280538 || ?bandleader = wd:Q806349) ?uri wdt:P1303 ?instrument. FILTER(?instrument = wd:Q119621 || ?instrument = wd:Q8338) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 137,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/prop/direct/P2048&gt; ?n . FILTER (xsd:float(?n) &gt; 2.0) }",\n        "startIndex": 137,\n        "stopIndex": 145\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/prop/direct/P2048&gt; ?n . FILTER (xsd:float(?n) &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q40523; wdt:P161 wd:Q48410 }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q40523; wdt:P161 wd:Q48410 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 161,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . } }",\n        "startIndex": 161,\n        "stopIndex": 165\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 23,\n        "query": "SELECT ?number WHERE { wd:Q70096636 wd:P1128 ?number }",\n        "startIndex": 23,\n        "stopIndex": 34\n    },\n    "query": "SELECT ?number WHERE { wd:Q70096636 wd:P1128 ?number }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q219512 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P161 wd:Q219512 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q5451 wdt:P17 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q5451 wdt:P17 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 77,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?almaMater WHERE { wd:Q567 wdt:P69 ?almaMater }",\n        "startIndex": 77,\n        "stopIndex": 83\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?almaMater WHERE { wd:Q567 wdt:P69 ?almaMater }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 161,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . } }",\n        "startIndex": 459,\n        "stopIndex": 463\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q11631&gt; . ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q2184&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q15180&gt; . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>Query Bad Formed</t>
   </si>
   <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
     <t>Wrong Property</t>
   </si>
   <si>
     <t>Missing P31</t>
   </si>
   <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
     <t>Wrong Entity</t>
   </si>
   <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
     <t>Entity treated as Property</t>
   </si>
   <si>
-    <t>Property treaded as Entity</t>
+    <t>Property treated as Entity</t>
   </si>
   <si>
     <t>Unadapted Dataset Patterns</t>
@@ -1857,13 +2368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,8 +2399,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1903,19 +2423,22 @@
         <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1926,22 +2449,25 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="I3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1955,19 +2481,22 @@
         <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +2513,7 @@
         <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1993,7 +2522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2007,19 +2536,25 @@
         <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2033,19 +2568,25 @@
         <v>311</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2059,19 +2600,22 @@
         <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2085,19 +2629,19 @@
         <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2111,19 +2655,19 @@
         <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2137,19 +2681,28 @@
         <v>308</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I11" t="s">
+        <v>440</v>
+      </c>
+      <c r="J11" t="s">
+        <v>441</v>
+      </c>
+      <c r="K11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2163,19 +2716,19 @@
         <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2189,19 +2742,19 @@
         <v>309</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2215,19 +2768,25 @@
         <v>308</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I14" t="s">
+        <v>441</v>
+      </c>
+      <c r="J14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2238,22 +2797,22 @@
         <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2267,19 +2826,19 @@
         <v>309</v>
       </c>
       <c r="E16" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F16" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2293,19 +2852,25 @@
         <v>308</v>
       </c>
       <c r="E17" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F17" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I17" t="s">
+        <v>442</v>
+      </c>
+      <c r="J17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2316,22 +2881,22 @@
         <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E18" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2345,19 +2910,25 @@
         <v>308</v>
       </c>
       <c r="E19" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="F19" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I19" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2368,13 +2939,13 @@
         <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2383,7 +2954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2394,22 +2965,22 @@
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F21" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2420,13 +2991,13 @@
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2435,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2446,22 +3017,31 @@
         <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="F23" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I23" t="s">
+        <v>441</v>
+      </c>
+      <c r="J23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2475,19 +3055,22 @@
         <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F24" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="I24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2498,13 +3081,13 @@
         <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2513,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2524,22 +3107,22 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="E26" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="F26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2550,22 +3133,22 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="F27" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2576,13 +3159,13 @@
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2591,7 +3174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2605,19 +3188,22 @@
         <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F29" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="I29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2628,22 +3214,22 @@
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2657,19 +3243,28 @@
         <v>308</v>
       </c>
       <c r="E31" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I31" t="s">
+        <v>443</v>
+      </c>
+      <c r="J31" t="s">
+        <v>441</v>
+      </c>
+      <c r="K31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2683,19 +3278,22 @@
         <v>309</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F32" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2706,13 +3304,13 @@
         <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2721,7 +3319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2732,22 +3330,25 @@
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F34" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2758,22 +3359,28 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F35" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I35" t="s">
+        <v>443</v>
+      </c>
+      <c r="J35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2787,19 +3394,22 @@
         <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F36" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2813,19 +3423,22 @@
         <v>309</v>
       </c>
       <c r="E37" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F37" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2839,19 +3452,22 @@
         <v>309</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F38" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2862,22 +3478,22 @@
         <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E39" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="F39" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2888,13 +3504,13 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2903,7 +3519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2917,19 +3533,19 @@
         <v>309</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F41" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2943,19 +3559,22 @@
         <v>308</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2966,22 +3585,28 @@
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F43" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I43" t="s">
+        <v>443</v>
+      </c>
+      <c r="J43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2992,22 +3617,22 @@
         <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="E44" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="F44" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3018,22 +3643,28 @@
         <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F45" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I45" t="s">
+        <v>443</v>
+      </c>
+      <c r="J45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3044,13 +3675,13 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E46" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3059,7 +3690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3070,22 +3701,22 @@
         <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3099,19 +3730,25 @@
         <v>309</v>
       </c>
       <c r="E48" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I48" t="s">
+        <v>443</v>
+      </c>
+      <c r="J48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3122,13 +3759,13 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3137,7 +3774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3148,13 +3785,13 @@
         <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E50" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3163,7 +3800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3174,22 +3811,22 @@
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E51" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3200,13 +3837,13 @@
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3215,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3229,19 +3866,25 @@
         <v>308</v>
       </c>
       <c r="E53" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I53" t="s">
+        <v>447</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3255,19 +3898,22 @@
         <v>309</v>
       </c>
       <c r="E54" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F54" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3278,22 +3924,25 @@
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="E55" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3304,13 +3953,13 @@
         <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E56" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3319,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3330,13 +3979,13 @@
         <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E57" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F57" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3345,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3356,22 +4005,25 @@
         <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F58" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3382,13 +4034,13 @@
         <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3397,7 +4049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3408,13 +4060,13 @@
         <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E60" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F60" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3423,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3437,19 +4089,22 @@
         <v>309</v>
       </c>
       <c r="E61" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="I61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3463,19 +4118,22 @@
         <v>309</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F62" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3486,13 +4144,13 @@
         <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F63" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3501,7 +4159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3512,22 +4170,28 @@
         <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E64" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>441</v>
+      </c>
+      <c r="I64" t="s">
         <v>443</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3541,19 +4205,19 @@
         <v>309</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3567,19 +4231,22 @@
         <v>308</v>
       </c>
       <c r="E66" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F66" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3593,19 +4260,19 @@
         <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3619,19 +4286,25 @@
         <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F68" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3642,13 +4315,13 @@
         <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E69" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3657,7 +4330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3668,13 +4341,13 @@
         <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E70" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F70" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3683,7 +4356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3694,22 +4367,25 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E71" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3720,22 +4396,22 @@
         <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="E72" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="F72" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3749,19 +4425,19 @@
         <v>309</v>
       </c>
       <c r="E73" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F73" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3772,22 +4448,22 @@
         <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E74" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F74" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3801,19 +4477,22 @@
         <v>308</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3827,19 +4506,25 @@
         <v>309</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F76" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I76" t="s">
+        <v>443</v>
+      </c>
+      <c r="J76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3850,22 +4535,22 @@
         <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F77" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3876,22 +4561,25 @@
         <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E78" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F78" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="I78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3905,19 +4593,25 @@
         <v>308</v>
       </c>
       <c r="E79" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I79" t="s">
+        <v>443</v>
+      </c>
+      <c r="J79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3931,19 +4625,19 @@
         <v>309</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F80" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3954,22 +4648,25 @@
         <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I81" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3983,19 +4680,22 @@
         <v>308</v>
       </c>
       <c r="E82" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F82" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4006,22 +4706,22 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="F83" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4032,22 +4732,25 @@
         <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="E84" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F84" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="I84" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4061,19 +4764,22 @@
         <v>309</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F85" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4087,19 +4793,19 @@
         <v>309</v>
       </c>
       <c r="E86" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F86" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4113,19 +4819,22 @@
         <v>309</v>
       </c>
       <c r="E87" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F87" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4139,19 +4848,25 @@
         <v>308</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F88" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="I88" t="s">
+        <v>443</v>
+      </c>
+      <c r="J88" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4162,13 +4877,13 @@
         <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="E89" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F89" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4177,7 +4892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4188,13 +4903,13 @@
         <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E90" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F90" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4203,7 +4918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4214,13 +4929,13 @@
         <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E91" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F91" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4229,7 +4944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4243,19 +4958,22 @@
         <v>309</v>
       </c>
       <c r="E92" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F92" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="I92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4266,13 +4984,13 @@
         <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F93" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4281,7 +4999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4292,22 +5010,25 @@
         <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E94" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F94" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="I94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4321,19 +5042,19 @@
         <v>309</v>
       </c>
       <c r="E95" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F95" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4344,22 +5065,28 @@
         <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="E96" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F96" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="I96" t="s">
+        <v>443</v>
+      </c>
+      <c r="J96" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4373,19 +5100,25 @@
         <v>309</v>
       </c>
       <c r="E97" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F97" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I97" t="s">
+        <v>441</v>
+      </c>
+      <c r="J97" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4396,22 +5129,22 @@
         <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="F98" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4425,19 +5158,22 @@
         <v>309</v>
       </c>
       <c r="E99" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F99" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="I99" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4448,22 +5184,28 @@
         <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E100" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F100" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="I100" t="s">
+        <v>443</v>
+      </c>
+      <c r="J100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4477,20 +5219,20 @@
         <v>309</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F101" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>